--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F577F8-C0F6-CA44-8006-EFC5849D6C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CD93D-14A5-AA49-94AB-D01A9FF5FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -437,7 +437,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06.24(월)</t>
+    <t>06.20(목)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +871,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CD93D-14A5-AA49-94AB-D01A9FF5FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B094FAFC-E9A2-EF43-9571-010E0FB28378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,58 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">초격차 패키지 : 한 번에 끝내는 디자인 툴 </t>
-  </si>
-  <si>
-    <t>06.26(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.27(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.30(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.08(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.26(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.12(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.18(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.25(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.04(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.30(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.23(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.16(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.09(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UX 그룹 과제 최종 결과물</t>
@@ -436,15 +384,14 @@
     <t>22. 채색하는 방법을 응용한 화장품 그리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>06.20(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="m&quot;/&quot;d;@"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -518,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -912,20 +862,20 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="C2" s="5">
+        <v>45463</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45469</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -935,20 +885,20 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5">
+        <v>45470</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45473</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="398">
@@ -958,20 +908,20 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="C4" s="5">
+        <v>45481</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45499</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="95">
@@ -981,20 +931,20 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+      <c r="C5" s="5">
+        <v>45482</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45485</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1004,20 +954,20 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5">
+        <v>45489</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45491</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
@@ -1027,20 +977,20 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="C7" s="5">
+        <v>45496</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45498</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38">
@@ -1050,20 +1000,20 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+      <c r="C8" s="5">
+        <v>45503</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45508</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B094FAFC-E9A2-EF43-9571-010E0FB28378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608F843-A589-854A-9299-2D953AC9A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,14 +384,67 @@
     <t>22. 채색하는 방법을 응용한 화장품 그리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2024-06-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;/&quot;d;@"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -465,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,7 +534,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,13 +876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" customWidth="1"/>
@@ -839,10 +896,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -862,11 +919,11 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
-        <v>45463</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45469</v>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -885,11 +942,11 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
-        <v>45470</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45473</v>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -908,11 +965,11 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
-        <v>45481</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45499</v>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -931,11 +988,11 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
-        <v>45482</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45485</v>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -954,11 +1011,11 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
-        <v>45489</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45491</v>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
@@ -977,11 +1034,11 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
-        <v>45496</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45498</v>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -1000,11 +1057,11 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
-        <v>45503</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45508</v>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608F843-A589-854A-9299-2D953AC9A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217C323-960B-1643-B5EA-ABB17CBBCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="32460" yWindow="-1000" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,23 @@
   </si>
   <si>
     <t>2024-08-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 유저 리서치 김승주 강사님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX Research (Service Goal) 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI, 사용성 레벨이 아닌 특성 서비스의 필요함 등
+기한 28일 오전 9시까지 조장이 제출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,9 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -874,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -896,10 +910,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -919,10 +933,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -942,10 +956,10 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -965,10 +979,10 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -988,10 +1002,10 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1011,10 +1025,10 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1034,10 +1048,10 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1057,10 +1071,10 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1071,6 +1085,26 @@
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="38">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217C323-960B-1643-B5EA-ABB17CBBCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C98194-2802-EC42-A43A-9A499FC23AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32460" yWindow="-1000" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,8 +453,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI, 사용성 레벨이 아닌 특성 서비스의 필요함 등
-기한 28일 오전 9시까지 조장이 제출</t>
+    <t xml:space="preserve">
+UX그룹프로젝트_제안할 서비스 선정
+UX관점에서 서비스를 선정하고, Approach 수립하기
+여러분의 생각을 간단히 정리하여 제출
+자세한 내용은 구글드라이브 과제 폴더 안에 UX리서치 과제_1일차.pdf를 참고해주세요! (09시까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 유저 리서치_김승주 강사님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +519,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,6 +566,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +908,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1087,7 +1104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38">
+    <row r="9" spans="1:7" ht="114">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1105,6 +1122,9 @@
       </c>
       <c r="F9" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C98194-2802-EC42-A43A-9A499FC23AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D21963-0CBA-EA4D-914D-55630B7E126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="-1000" windowWidth="25380" windowHeight="15820" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="48000" yWindow="-1900" windowWidth="19200" windowHeight="19400" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,23 @@
   </si>
   <si>
     <t>UX 유저 리서치_김승주 강사님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용성 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용성 평가 준비 및 조사 평가 항목 정의를 통한 사용자 인터뷰에 대한 이해
+[팀 과제]
+1. 조사 대상자 모집하기
+2. 조사 질문지 작성 
+3. 조사 수행 및 결과 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1127,6 +1144,29 @@
         <v>52</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="133">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/public/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D21963-0CBA-EA4D-914D-55630B7E126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91EC87-8EB1-564B-A472-72B73EDB73DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48000" yWindow="-1900" windowWidth="19200" windowHeight="19400" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용성 평가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +475,10 @@
 1. 조사 대상자 모집하기
 2. 조사 질문지 작성 
 3. 조사 수행 및 결과 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,13 +1155,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>52</v>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91EC87-8EB1-564B-A472-72B73EDB73DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6FB01-944C-2043-A724-31C7A163BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48000" yWindow="-1900" windowWidth="19200" windowHeight="19400" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,34 @@
   </si>
   <si>
     <t>2024-07-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 유저 리서치 김승주 강사님</t>
+  </si>
+  <si>
+    <t>조사 질문지 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 유저 리서치_김승주 강사님</t>
+  </si>
+  <si>
+    <t>과제 내용
+스크리닝 서베이 응답받기
+조사 질문지 작성
+1.조사 항목 상세 정의-&gt;2.질문지 작성
+조사 항목 상세 정의(조사범주, 검증이슈, 질문내용 간단히) 후 강사님께 중간피드백 받을 수 있음
+모더레이터 선정하기
+자세한 내용은 UX리서치 과제_3일차.pdf를 참고해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1167,6 +1195,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="152">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6FB01-944C-2043-A724-31C7A163BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11E4BC3-4E9A-8240-BB9E-07A6B809360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-1900" windowWidth="19200" windowHeight="19400" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="28800" yWindow="-1900" windowWidth="19200" windowHeight="21100" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>UX 유저 리서치, 사용성 평가, UX 데이터 모델링</t>
   </si>
   <si>
-    <t>UI Design</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -224,83 +221,6 @@
   </si>
   <si>
     <t>포토샵 온라인 강의 2차 과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>온라인</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Docs-Noto Sans KR"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">강의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Docs-Noto Sans KR"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Docs-Noto Sans KR"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과제</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,12 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[UI 디자인 기초 지식]
-1. 최근 자신이 작업했던 경험을 비추어 볼 때, 관련 지식들이 없어서 힘들었던 점을 최대한 생각해 내어 적어보도록 하자.
- 그리고 이런 상황에서 어떻게 그때 그때 넘겼는지도 함께 적어보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Layer Style을 활용한 상품 광고 이미지 제작하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +284,6 @@
   <si>
     <t>Ch 01. 일러스트 입문
 04. 회전 툴을 이용한 톱니바퀴 그리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH01-02. UI 디자인 기초 지식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,12 +419,30 @@
 자세한 내용은 UX리서치 과제_3일차.pdf를 참고해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[UXUI 3기] Figma 온라인 강의_1차 과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업용 상세페이지 만들기
+원하는 브랜드를 선정 후 해당 상세페이지 템플릿 제작하기
+제작 된 템플릿의 가이드라인 작성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch08. 협업을 위한 가이드 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를 위한 피그마 119개 실습으로 완전 정복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,14 +475,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Noto Sans KR"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -604,7 +524,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -613,7 +533,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -996,19 +916,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1019,19 +939,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="398">
@@ -1042,42 +962,42 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="95">
+    <row r="5" spans="1:7" ht="76">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1085,22 +1005,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
@@ -1108,22 +1028,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38">
@@ -1131,22 +1051,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="114">
@@ -1154,22 +1074,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="133">
@@ -1177,42 +1097,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="152">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11E4BC3-4E9A-8240-BB9E-07A6B809360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD7EE4-5D28-6B49-9307-39E92A6DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1900" windowWidth="19200" windowHeight="21100" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="44960" yWindow="-660" windowWidth="19200" windowHeight="19420" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-07-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,7 +430,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모두를 위한 피그마 119개 실습으로 완전 정복</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,6 +491,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -514,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -981,23 +990,23 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1008,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1031,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -1054,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1074,22 +1083,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="133">
@@ -1097,42 +1106,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="152">
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD7EE4-5D28-6B49-9307-39E92A6DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5723FB96-884D-D244-8F56-8226429958CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44960" yWindow="-660" windowWidth="19200" windowHeight="19420" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,14 +396,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UX 유저 리서치 김승주 강사님</t>
-  </si>
-  <si>
     <t>조사 질문지 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UX 유저 리서치_김승주 강사님</t>
   </si>
   <si>
     <t>과제 내용
@@ -435,6 +429,27 @@
   </si>
   <si>
     <t>2024-07-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뷰 결과 정리, 클러스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한
+2024.07.18.(목) 자정(24:00) 전까지 전달 완료
+제출 방식
+수강생 공유용 폴더_프로젝트_김승수강사님 폴더_조별 폴더에 업로드
+피그잼을 통해 클러스터링 한 결과물을 강사님께 피그잼 링크로 전달
+과제 내용
+인터뷰 결과 정리 및 클러스터링 하기
+파일럿 인터뷰&gt;사용자 조사 수행&gt;인터뷰 결과 정리 및 클러스터링
+진행된 부분까지만 정리해오면 됩니다
+자세한 내용은 UX리서치 과제_4일차.pdf를 참고해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -991,22 +1006,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1125,8 +1140,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="152">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>51</v>
@@ -1135,13 +1153,36 @@
         <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="247">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5723FB96-884D-D244-8F56-8226429958CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EBD53-4FA6-6740-976F-4C3A4C95781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,15 +335,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-07-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-08-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,6 +442,18 @@
 파일럿 인터뷰&gt;사용자 조사 수행&gt;인터뷰 결과 정리 및 클러스터링
 진행된 부분까지만 정리해오면 됩니다
 자세한 내용은 UX리서치 과제_4일차.pdf를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFFA5A-D5A4-FD4F-8603-9B15D42E1344}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1006,22 +1010,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1035,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1058,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -1078,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1098,22 +1102,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="133">
@@ -1121,22 +1125,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="152">
@@ -1144,22 +1148,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="247">
@@ -1167,22 +1171,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/assignmenttable.xlsx
+++ b/excel_files/assignmenttable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/build/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EBD53-4FA6-6740-976F-4C3A4C95781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F2D36C-5C95-B14B-94B1-98F90FD74990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{7D558B30-DA92-F946-9514-C43438D88D64}"/>
   </bookViews>
@@ -327,15 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-07-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-07-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,6 +446,14 @@
   </si>
   <si>
     <t>2024-08-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +901,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1010,22 +1010,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38">
@@ -1039,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -1082,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1102,22 +1102,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="133">
@@ -1125,22 +1125,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="152">
@@ -1148,22 +1148,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="247">
@@ -1171,22 +1171,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
